--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17884F31-7689-4C55-BF6C-5087243E81F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7216A6-1A33-4DD0-94F3-609DA37736A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4132" uniqueCount="2278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4142" uniqueCount="2283">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -6889,6 +6889,21 @@
   </si>
   <si>
     <t>Giảm Phúc thọ bản thân, dòng họ</t>
+  </si>
+  <si>
+    <t>Vị trí cung Phúc Đức so với ngũ hành Mệnh: Bình thường</t>
+  </si>
+  <si>
+    <t>Vị trí cung Phúc Đức so với ngũ hành Mệnh: Tuyệt địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Phúc Đức so với ngũ hành Mệnh: Sinh địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Phúc Đức so với ngũ hành Mệnh: Vượng địa</t>
+  </si>
+  <si>
+    <t>Vị trí cung Phúc Đức so với ngũ hành Mệnh: Bại địa</t>
   </si>
 </sst>
 </file>
@@ -6936,7 +6951,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7213,10 +7249,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:G2043"/>
+  <dimension ref="A2:G2047"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1723" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" topLeftCell="A1943" workbookViewId="0">
+      <selection activeCell="D2040" sqref="D2040"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9489,7 +9525,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>304</v>
       </c>
@@ -9681,7 +9717,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>328</v>
       </c>
@@ -9745,7 +9781,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>336</v>
       </c>
@@ -9881,7 +9917,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>353</v>
       </c>
@@ -9889,7 +9925,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>354</v>
       </c>
@@ -10089,7 +10125,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>379</v>
       </c>
@@ -16633,7 +16669,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="1177" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1177" s="1" t="s">
         <v>1186</v>
       </c>
@@ -20433,7 +20469,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="1638" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1638" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1638" s="1" t="s">
         <v>1625</v>
       </c>
@@ -20441,7 +20477,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="1639" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1639" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1639" s="1" t="s">
         <v>1626</v>
       </c>
@@ -21009,7 +21045,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="1710" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1710" s="1" t="s">
         <v>1697</v>
       </c>
@@ -23713,8 +23749,46 @@
       </c>
       <c r="G2042" s="1"/>
     </row>
-    <row r="2043" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2043" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2043" s="1" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B2043" s="1" t="s">
+        <v>2278</v>
+      </c>
       <c r="F2043" s="2"/>
+    </row>
+    <row r="2044" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2044" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B2044" s="1" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2045" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B2045" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2046" s="1" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B2046" s="1" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2047" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B2047" s="1" t="s">
+        <v>2282</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D2042" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
@@ -23910,6 +23984,10 @@
     </filterColumn>
   </autoFilter>
   <dataConsolidate/>
+  <conditionalFormatting sqref="A2043:B2047">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B293885-3DAE-43F7-A3E8-7784780F1123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0CFA11-D6B6-4FF8-8B71-6D585A577656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4148" uniqueCount="2289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4154" uniqueCount="2295">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -6922,6 +6922,24 @@
   </si>
   <si>
     <t>Cung phúc đức còn là cung vị phụ mẫu của cung phụ mẫu, Hóa Lộc ở cung phúc đức cũng có thể chủ về chủ công ti đối xử tốt với mệnh tạo.</t>
+  </si>
+  <si>
+    <t>Cung phúc đức có thể xem là cung vị chủ về hứng thú, thị hiếu, còn Hóa Quyền là có hàm ý biến động mau lẹ, không cố định; trường hợp Hóa Quyền ở cung phúc đức, mệnh tạo sẽ có nhiều hứng thú và thị hiếu, tính hay thay đổi, ưa thích thời thượng.</t>
+  </si>
+  <si>
+    <t>Trước đã đề cập, bản thân cung phúc đức là cung vị chủ về EQ và thực hiện chức trách của ý thức; từ đó có thể quan sát mức độ bình ổn của nội tâm, cũng có thể xem trạng thái tâm lí của bản thân trong việc tu dưỡng, xử thế; trường hợp có Hóa Quyền, vì Hóa Quyền có ý tượng "tất bật, miệt mài" và "không ổn định", nên mệnh tạo thường là người lao tâm lao lực, lúc xử lí các sự cố phức tạp, đối diện với thị phi, sẽ có hành vi hấp tấp vội vàng, không yên, hơn nữa, nội tâm dễ cảm thấy phiền muộn, lo lắng. Vì có Hóa Quyền, nên về trạng thái tâm lí, dễ cố chấp ý kiến của mình để vạch ra hướng tiến hành một sự kiện, do đó thường thường làm cho người ta có ấn tượng họ là người tự phụ, bướng bỉnh, rất chủ quan; hơn nữa, đối với mọi việc, mệnh tạo có ý thức thao túng rất mạnh.</t>
+  </si>
+  <si>
+    <t>Cung phúc đức còn là cung vị khí số của hôn nhân, trường hợp cung phúc đức có Hóa Quyền thường thường tuy quan hệ hôn nhân thành lập rất mau lẹ, nhưng lại vì Hóa Quyền chủ về "lực ép buộc", nên sau khi kết hôn quan hệ của hai người sẽ dễ trở nên căng thẳng, sống với nhau cũng thường biến thành nỗi sợ hãi, thiếu hạnh phúc. Vì Hóa Quyền xuất hiện tại cung phúc đức của mệnh tạo, do tác dụng của Hóa Quyền mà mệnh tạo có thể đi tìm người ở bên ngoài, thường sẽ khiến cho hôn nhân của hai người biến thành quan hệ tay ba. Hơn nữa, vì Hóa Quyền có hàm ý thay đổi, biến động, nên sự kiện vừa kể thường thường là do hành vi và ý chí của mệnh tạo dẫn đến kết quả như vậy, chứ không phải do người khác gây ra.</t>
+  </si>
+  <si>
+    <t>Có thể nói cung phúc đức là trọng điểm quyết định quan hệ hôn nhân có thành lập hay không, trường hợp có Hóa Quyền, thêm vào đó, các sao ở cung phu thê khá phức tạp, còn bị hành hạn khơi động, hoặc thấy tứ hóa ùn ùn xuất hiện, thì người này rất dễ có tử hai lần hôn nhân trò lên; hơn nữa, sẽ dễ vì tác dụng của vận hạn mà có hai lần hôn nhân trong thời gian đó.Vì mệnh tạo thích hưởng thụ, giải trí theo kiểu tốc hành, thêm vào đó là quan hệ vợ chồng khá bất ổn, nếu cung mệnh có các sao đào hoa, hoặc tổ hợp sao ở cung tử nữ khá phức tạp, thông thường sẽ có hiện tượng phong lưu, chuyện tình qua đêm. Và do điều dẫn đến, mệnh tạo sẽ dùng hành vi này để giải tỏa áp lực tâm lí.</t>
+  </si>
+  <si>
+    <t>Cung phúc đức còn là cung vị thiên di của cung tài bạch, là nơi nội bộ chuẩn bị, trước khi bày ra tác nghiệp, cũng là cung vị động tâm khởi niệm; trường hợp có Hóa Quyền, trước khi biểu hiện bằng lời nói và hành động, mệnh tạo sẽ suy nghĩ đi suy nghĩ lại nhiều lần, cũng muốn sẽ đạt tới tận thiện, tận mĩ. Do đó, người như vậy thích hợp làm các công việc như lặp kế hoạch, thư kí, tham mưu, phụ tá, cố vấn. Lại vì có Hóa Quyền, nên có hàm ý biến hóa đa đoan, nếu sao hóa thuộc loại có tính khai sáng thì mệnh tạo cũng khá thích hợp theo đuổi những loại sự nghiệp có thể phát huy sở trường giàu sáng kiến của mình.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nhưng cung phúc đức có Hóa Quyền, tuy ảnh hưởng đến cung tài bạch, nhưng tác dụng của nó chỉ khiến dục vọng kiếm tiền của mệnh tạo mạnh lên, tư duy nhạy bén hơn, mà không chủ về kiếm tiền thuận lợi, liên quan đến vấn đề này cần phải xem xét các sao và tình huống phi hóa ở cung tài bạch. Hơn nữa, vì cung phúc đức có Hóa Quyền, nên trạng thái tâm lí lúc kiếm tiền phần nhiều là phiền muộn, lo lắng bất an. Cung phúc đức là cung vị giao dịch (cung vị biểu hiện) của cung thiên di, vì vậy trong môi trường làm việc mệnh tạo cùng dễ có "dịch động", thường được cử đi xa, mà phần nhiều lúc cứ đi xa là đàm đương nhiệm vụ quan trọng. Vì "dịch động" sẽ kích thích mệnh tạo phải biểu hiện và đòi hỏi cao ở bản thân, do đó thường thường ở bên ngoài sẽ có biểu hiện tốt hơn người bình thường.</t>
   </si>
 </sst>
 </file>
@@ -7268,8 +7286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <dimension ref="A2:J2047"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1500" workbookViewId="0">
-      <selection activeCell="C1504" sqref="C1504"/>
+    <sheetView tabSelected="1" topLeftCell="A1505" workbookViewId="0">
+      <selection activeCell="H1506" sqref="H1506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19362,15 +19380,33 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="1505" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="1505" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A1505" s="1" t="s">
         <v>1502</v>
       </c>
       <c r="B1505" s="1" t="s">
         <v>2194</v>
       </c>
-    </row>
-    <row r="1506" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="C1505" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="D1505" s="1" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E1505" s="1" t="s">
+        <v>2291</v>
+      </c>
+      <c r="F1505" s="1" t="s">
+        <v>2292</v>
+      </c>
+      <c r="G1505" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="H1505" s="1" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A1506" s="1" t="s">
         <v>1503</v>
       </c>
@@ -19384,7 +19420,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="1507" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="1507" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A1507" s="1" t="s">
         <v>1504</v>
       </c>
@@ -19395,7 +19431,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="1508" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="1508" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A1508" s="1" t="s">
         <v>1505</v>
       </c>
@@ -19406,7 +19442,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="1509" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="1509" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A1509" s="1" t="s">
         <v>1506</v>
       </c>
@@ -19417,7 +19453,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="1510" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="1510" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1510" s="1" t="s">
         <v>1507</v>
       </c>
@@ -19431,7 +19467,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="1511" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="1511" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A1511" s="1" t="s">
         <v>1508</v>
       </c>
@@ -19439,7 +19475,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="1512" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="1512" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A1512" s="1" t="s">
         <v>1509</v>
       </c>
@@ -19450,7 +19486,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="1513" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="1513" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A1513" s="1" t="s">
         <v>1510</v>
       </c>
@@ -19461,7 +19497,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="1514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1514" s="1" t="s">
         <v>1511</v>
       </c>
@@ -19469,7 +19505,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="1515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1515" s="1" t="s">
         <v>1512</v>
       </c>
@@ -19477,7 +19513,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="1516" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="1516" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A1516" s="1" t="s">
         <v>1492</v>
       </c>
@@ -19488,7 +19524,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="1517" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="1517" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1517" s="1" t="s">
         <v>1514</v>
       </c>
@@ -19508,7 +19544,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="1518" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="1518" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1518" s="1" t="s">
         <v>1513</v>
       </c>
@@ -19529,7 +19565,7 @@
       </c>
       <c r="G1518" s="1"/>
     </row>
-    <row r="1519" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="1519" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1519" s="1" t="s">
         <v>1515</v>
       </c>
@@ -19540,7 +19576,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="1520" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="1520" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
         <v>1516</v>
       </c>

--- a/LuanPhucDuc.xlsx
+++ b/LuanPhucDuc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tuvi\TuVi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0CFA11-D6B6-4FF8-8B71-6D585A577656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEB7B3D-BD03-4329-B87F-A304FD58100A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4154" uniqueCount="2295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4166" uniqueCount="2306">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -6940,6 +6940,39 @@
   </si>
   <si>
     <t xml:space="preserve"> Nhưng cung phúc đức có Hóa Quyền, tuy ảnh hưởng đến cung tài bạch, nhưng tác dụng của nó chỉ khiến dục vọng kiếm tiền của mệnh tạo mạnh lên, tư duy nhạy bén hơn, mà không chủ về kiếm tiền thuận lợi, liên quan đến vấn đề này cần phải xem xét các sao và tình huống phi hóa ở cung tài bạch. Hơn nữa, vì cung phúc đức có Hóa Quyền, nên trạng thái tâm lí lúc kiếm tiền phần nhiều là phiền muộn, lo lắng bất an. Cung phúc đức là cung vị giao dịch (cung vị biểu hiện) của cung thiên di, vì vậy trong môi trường làm việc mệnh tạo cùng dễ có "dịch động", thường được cử đi xa, mà phần nhiều lúc cứ đi xa là đàm đương nhiệm vụ quan trọng. Vì "dịch động" sẽ kích thích mệnh tạo phải biểu hiện và đòi hỏi cao ở bản thân, do đó thường thường ở bên ngoài sẽ có biểu hiện tốt hơn người bình thường.</t>
+  </si>
+  <si>
+    <t>Cung phúc đức là cung vị chủ về mệnh tạo có được hưởng phước hay không, do đó có thể dùng để đoán bình thường mệnh tạo có được hưởng thụ hay không? Tâm cảnh có yên bình hay không? Cung phúc đúc là cung vị chủ về hứng thú, thị hiếu ... của thân tâm, trường hợp có Hóa Khoa, chủ về mệnh tạo là người rất hiểu biết ý vị tình cảm trong cuộc sống, phẩm vị của thị hiếu cũng cao, có thể dựa vào lạc thú cuộc sống để điều chỉnh tâm tình của bản thân cho thích hợp.</t>
+  </si>
+  <si>
+    <t>Cung phúc đức là khu vực trước của cung tài bạch, còn cung tài bạch là nơi biểu đạt lời nói cử chỉ, cho nên cung phúc đức có thể xem là động tâm khởi niệm trước khi biểu hiện lời nói và hành động, cũng có thể xem là nơi hi vọng lời nói và hành động đạt được hiệu quả. Trường hợp Hóa Khoa ở cung phúc đức, là chủ về cách suy nghĩ và động niệm của người này đều khá đúng đắn, nhưng có biểu hiện như vậy hay không thì phải xem cung tài bạch. Hóa Khoa có tác dụng trật tự hóa, ổn định cuộc thế khá chậm, cho nên lúc phải quyết định chọn lựa một sự kiện quan trọng, mệnh tạo sẽ suy nghĩ kĩ lưỡng và quy hoạch cẩn thận; vì là cung chi viện cho cung tài bạch, nên thông thường là cần phải suy nghĩ kĩ lưỡng và quy hoạch cẩn thận trong môi trường làm việc. Cũng vì nhân tố này mà người cung phúc đức thấy Hóa Khoa rất thích hợp làm những công việc như lập kế hoạch, tham mưu, phụ tá, thư kí thân tín quan trọng.</t>
+  </si>
+  <si>
+    <t>Bởi vì cung phúc đức ở cung vị thiên di của cung tài bạch, thảy đều thuộc "ngã cung", cho nên trong Đẩu Số, cung phúc đức và cung tài bạch có thể tương thông với nhau. Trường hợp cung phúc đức có Hóa Khoa, cũng giống như cung tài bạch có Hóa Khoa, về biểu hiện phần nhiều họ là mẫu người lí trí, ít thấy tình trạng vì lợi lộc mà che mờ lí trí. Cũng vì cung phúc đức là cung vị biểu hiện chủ đạo của cung tài bạch, cho nên nếu thấy biểu hiện của mệnh tạo lúc mạnh lúc yếu, hoặc lúc cứng lúc mềm, đều có thể nằm trong phạm vi tính toán của cung phúc đức có Hóa Khoa. Đây là một loại hành vi mang tính sách lược, bởi vì cung phúc đức là cung vị chủ về "động cơ". Vì cung phúc đức đại biểu cho mức độ điều chỉnh tâm tình của bản thân mệnh tạo, trường hợp có Hóa Khoa, là chủ về tâm cảnh của mệnh tạo rất quân bình, sẽ không bao giờ quá vui hay quá giận, sống với nhau lâu ngày có thể phát hiện ra người này là bậc chính nhân quân tử; nhưng lúc đột ngột gặp biến cố một cách vô ý thức, thì cần phải phân tích thêm cung điền trạch.</t>
+  </si>
+  <si>
+    <t>Người cung phúc đức thấy Hóa Khoa, EQ khá cao, khó nổi giận một cách kịch liệt, cũng khó bị khích tướng, nguyên nhân lớn nhất là vì họ biết cảm thấy đủ. Cho nên mệnh tạo sẽ không theo đuổi những điều cao xa, mà rất biết cách tự điều chỉnh bản thân, khiến cho thân tâm được điều hòa một cách hợp lí. Cung phúc đức là cung vị khí số của cung phu thê, tượng trưng cho tình hình sống với nhau của hai người, sau khi kết hôn Hóa Khoa ở cung phúc đức sẽ phát huy lực tác động, vợ chồng mệnh tạo sẽ sống với nhau hòa hợp, quan hệ của hai người là sự phối hợp rất ăn ý, đánh giá cao ý vị tình yêu của nhau, ít có chuyện tranh chấp cãi vã. Vì Hóa Khoa còn tác dụng bảo vệ, Hóa Khoa ở cung phúc đức sẽ có công dụng che chở cho hôn nhân, vì vậy sẽ khó xảy ra biến động, thay đổi trong hôn nhân, dù không ngừng nghe tin đồn thêu dệt, nếu có thật cũng khó bị bắt quả tang, nhưng dù tội chứng xác thực, vẫn khó li hôn.</t>
+  </si>
+  <si>
+    <t>Xét từ góc độ cung thiên di, cung phúc đức là cung vị tài bạch của cung thiên di, cho nên trường hợp Hóa Khoa ở cung phúc đức là chủ về lúc ra bên ngoài, hay lúc đi công tác xa, mệnh tạo đều có biểu hiện khá tốt, đồng thời còn có thể phát huy sở học, năng lực, nghề chuyên môn một cách hợp lí và đúng mực.</t>
+  </si>
+  <si>
+    <t>Cung phúc đức thấy Hóa Khoa (Hóa Khoa [đại vận] thì càng ứng nghiệm), là có công dụng bảo vệ, cứu vãn các tình huống tính mệnh gặp phải nguy cơ như lâm trọng bệnh phải phẫu thuật, v.v... nên phần nhiều đều vượt qua tai ách một cách bình yên.</t>
+  </si>
+  <si>
+    <t>Cung phúc đức là cung vị đại biểu cho nội tâm của một cá nhân, xem có được an nhàn không, có chuyển hóa được áp lực không; trường hợp Hóa Kị ở cung phúc đức, là chủ về cơ chế chuyển hóa áp lực không được hoàn hảo, cho nên mệnh tạo là người không biết tự điều chỉnh bản thân, áp lực cũng khó có cách giải tỏa, ngay cả lúc có đời sống vật chất sung túc họ vẫn có một cuộc sống với chất lượng kém. Vì cung phúc đức là cung vị thiên di của cung tài bạch, là đại biểu cho cơ hội kiếm tiền, còn là vị trí quan trọng chủ trì cung tài bạch. Từ cung này còn có thể nhìn ra tri thức của mệnh tạo có đủ để ứng phó trong công việc hay không. Trường hợp có Hóa Kị, mệnh tạo sẽ cho rằng mình không đủ năng lực ứng phó trong công việc; về tiền bạc và vấn đề kiếm tiền, họ có ý thức lo lắng rất cao và cảm giác bất an nghiêm trọng; họ sẽ có tư duy tiêu cực và có thái độ vồ vập trong việc kiếm tiền.</t>
+  </si>
+  <si>
+    <t>Vì cung phúc đức là cung vị chủ về tâm khởi động niệm, phán đoán trước khi hành động; trường hợp có Hóa Kị, mệnh tạo dễ có quan niệm tiêu cực khi phán đoán sự việc, là người bi quan. Ngoài ra, lúc động tâm khởi niệm cũng dễ có thái độ hoài nghi; gặp sự cố trở ngại, thất lợi, dễ có cách suy nghĩ tiêu cực và âu sầu buồn bực. Vì bản thân lo lắng mình thiếu tri thức, cũng sợ mình phán đoán sai lầm, nên họ là người khá trầm mặc, cho rằng nói nhiều vô ích, ít nói thì ít sai lầm; trừ phi cần thiết, nếu không họ sẽ không phát biểu ý kiến; nhưng ở đây không có nghĩa là họ không có chủ kiến, nhưng có lúc họ có lối suy nghĩ bế tắc, ưa tự trói mình vào những sự việc không giải quyết được, nên thường hao tổn quá nhiều công sức một cách vô ích.</t>
+  </si>
+  <si>
+    <t>Tiếp theo trên, vì có ý thức cao về nguy cơ, cho nên mệnh tạo sẽ không bàn luận chuyện cao siêu ở những nơi đông người, sợ bản thân phạm sai lầm để người ta nắm thóp; nhờ vậy, thường thường họ tạo được ấn tượng là người thực thà nơi người khác. Nhưng vì Hóa Kị nhập "ngã cung" là có ý tượng "thu vào", nên thái độ ứng biến trước nguy cơ là tiếp nhận và chịu đựng. Cung phúc đức còn là cung vị đại biểu cho EQ, trường hợp có Hóa Kị, là chủ về EQ của mệnh tạo không cao. Nói một cách khác, bụng dạ của họ không phải rộng rãi thực sự, lúc gặp khó khăn trong công việc, họ sẽ hơi thần kinh chất, trái với ấn tượng "là người thực thà" mà người ta cảm nhận ban đầu.</t>
+  </si>
+  <si>
+    <t>Vì cung phúc đức là cung vị thiên di của cung tài bạch, trường hợp có Hóa Kị, lúc xem về kiếm tiền, mệnh tạo sẽ có lối suy nghĩ: mình không có vận tốt; cho nên sẽ không có ảo tưởng mình sẽ có "hoạnh tài". Mà trái lại, họ là người thực dụng, tin rằng cần tiến từng bước, phải rất nỗ lực, dùng học thức và hi sinh thời gian mới được trả thù lao. Cung phúc đức là cung vị biểu hiện của cung thiên di, lúc lấy cung thiên di lập cực để luận vận "ra bên ngoài", trường hợp Hóa Kị ở cung phúc đức, là chủ về lúc mệnh tạo ở bên ngoài sẽ có biểu hiện rất kém, khó phát huy tri thức sở trường một cách hợp lí trong hoàn cảnh khó khăn, cho nên nếu được phái ra ở bên ngoài công tác, e rằng khó có biểu hiện tốt.</t>
+  </si>
+  <si>
+    <t>Cung phúc đức là cung vị khí số của cung phu thê, Hóa Kị đóng ở cung này, thường thường chủ về tình trạng hôn nhân không được tốt. Thường thường mệnh tạo dễ có hai lần hôn nhân, tình cảm đầu tiên sẽ kết thúc một cách thương tâm. Hóa Kị ở cung phúc đức là chủ về hôn nhân có nhiều biến số, dễ li hôn. Tổ hợp này cùng chủ về hiện tượng chậm kết hôn hay không kết hôn. Thông thường người phối ngẫu cũng là người có ý thức lo lắng rất nặng, mệnh tạo sống với với họ cũng sẽ bị áp lực. Cung phúc đức thấy Hóa Kị là chủ về mệnh tạo có ý thức lo lắng, chịu áp lực rất nặng, dễ vì trạng thái tâm lí này mà ảnh hưởng đến sức khỏe, khiến họ có sức đề kháng yếu đối với bệnh tật. Do đó người cung phúc đức thấy Hóa Kị nên bồi dưỡng sở thích, thị hiếu cho thích đáng, và thay đổi nhân sinh quan theo hướng lạc quan hơn, mới có thể điều chỉnh được trạng thái tâm lí tiêu cực, nhờ đó mà khỏe mạnh.</t>
   </si>
 </sst>
 </file>
@@ -7284,10 +7317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A2:J2047"/>
+  <dimension ref="A2:J2048"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1505" workbookViewId="0">
-      <selection activeCell="H1506" sqref="H1506"/>
+    <sheetView tabSelected="1" topLeftCell="A1506" workbookViewId="0">
+      <selection activeCell="C1508" sqref="C1508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19420,7 +19453,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="1507" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="1507" spans="1:8" ht="255" x14ac:dyDescent="0.25">
       <c r="A1507" s="1" t="s">
         <v>1504</v>
       </c>
@@ -19429,6 +19462,21 @@
       </c>
       <c r="C1507" s="1" t="s">
         <v>2199</v>
+      </c>
+      <c r="D1507" s="1" t="s">
+        <v>2301</v>
+      </c>
+      <c r="E1507" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="F1507" s="1" t="s">
+        <v>2303</v>
+      </c>
+      <c r="G1507" s="1" t="s">
+        <v>2304</v>
+      </c>
+      <c r="H1507" s="1" t="s">
+        <v>2305</v>
       </c>
     </row>
     <row r="1508" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -23863,6 +23911,29 @@
       </c>
       <c r="B2047" s="1" t="s">
         <v>2282</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+      <c r="A2048" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B2048" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C2048" s="1" t="s">
+        <v>2296</v>
+      </c>
+      <c r="D2048" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E2048" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="F2048" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="G2048" s="1" t="s">
+        <v>2300</v>
       </c>
     </row>
   </sheetData>
